--- a/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{787CABFE-108C-472B-A3EC-1599528DE3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DECBF9-1B6F-41E9-B863-44A1FDC9225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C013FB0-E252-43F7-94B0-0115EBA9C91E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC45461A-CDF8-4CDE-9D51-47501A24E9D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,75%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,25%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>63,81%</t>
   </si>
   <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>67,92%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,77%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>70,23%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,817 +197,805 @@
     <t>23,97%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>73,91%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>72,21%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>68,08%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
@@ -1016,934 +1004,928 @@
     <t>24,27%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>32,64%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>22,3%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>73,03%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>77,7%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>43,66%</t>
+    <t>44,01%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>38,51%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>62,36%</t>
   </si>
   <si>
-    <t>56,34%</t>
+    <t>55,99%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>61,49%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>35,63%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>28,54%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
+    <t>32,15%</t>
   </si>
   <si>
     <t>69,66%</t>
   </si>
   <si>
-    <t>64,37%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>73,16%</t>
   </si>
   <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>67,94%</t>
   </si>
   <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>66,51%</t>
   </si>
   <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
   </si>
   <si>
     <t>33,49%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>39,32%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>45,0%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
   </si>
   <si>
     <t>42,24%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>60,68%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>55,0%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>57,76%</t>
   </si>
   <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,32%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>52,95%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>30,86%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
   </si>
   <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA193DB-D0E7-4E9C-9D82-4BBC87E0C0CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D12A924-87CC-40A9-AC8F-9645BEBF7065}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3409,13 +3391,13 @@
         <v>102438</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -3424,13 +3406,13 @@
         <v>139727</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>233</v>
@@ -3439,13 +3421,13 @@
         <v>242165</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3442,13 @@
         <v>361887</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>388</v>
@@ -3475,13 +3457,13 @@
         <v>399641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>745</v>
@@ -3490,13 +3472,13 @@
         <v>761527</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3534,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3564,13 +3546,13 @@
         <v>186005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -3579,13 +3561,13 @@
         <v>198413</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>373</v>
@@ -3594,13 +3576,13 @@
         <v>384418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3597,13 @@
         <v>341050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -3630,13 +3612,13 @@
         <v>393068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -3645,13 +3627,13 @@
         <v>734118</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3701,13 @@
         <v>732331</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>839</v>
@@ -3734,13 +3716,13 @@
         <v>860064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1552</v>
@@ -3749,13 +3731,13 @@
         <v>1592395</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,16 +3749,16 @@
         <v>1695</v>
       </c>
       <c r="D29" s="7">
-        <v>1723914</v>
+        <v>1723915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>1839</v>
@@ -3785,13 +3767,13 @@
         <v>1879942</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>3534</v>
@@ -3800,13 +3782,13 @@
         <v>3603857</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3800,7 @@
         <v>2408</v>
       </c>
       <c r="D30" s="7">
-        <v>2456245</v>
+        <v>2456246</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3862,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B274DC84-E503-45D3-8216-7452725100D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9094DB-1AAB-4F3C-9B65-512E35E81E51}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3903,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,39 +3990,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,39 +4035,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,39 +4080,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4129,13 @@
         <v>118771</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4162,13 +4144,13 @@
         <v>127509</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -4177,13 +4159,13 @@
         <v>246281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4180,13 @@
         <v>287559</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>284</v>
@@ -4213,13 +4195,13 @@
         <v>309316</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>556</v>
@@ -4490,10 +4472,10 @@
         <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4490,13 @@
         <v>423266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>393</v>
@@ -4523,13 +4505,13 @@
         <v>426300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>794</v>
@@ -4538,13 +4520,13 @@
         <v>849566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4594,13 @@
         <v>75562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4627,13 +4609,13 @@
         <v>89858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -4642,13 +4624,13 @@
         <v>165420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4645,13 @@
         <v>116496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4678,13 +4660,13 @@
         <v>104724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>208</v>
@@ -4693,13 +4675,13 @@
         <v>221220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4749,13 @@
         <v>75715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -4782,13 +4764,13 @@
         <v>104032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -4797,13 +4779,13 @@
         <v>179747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,10 +4833,10 @@
         <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4904,13 @@
         <v>175713</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4937,13 +4919,13 @@
         <v>247580</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -4952,13 +4934,13 @@
         <v>423293</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4955,13 @@
         <v>399378</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>343</v>
@@ -4988,13 +4970,13 @@
         <v>378407</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>719</v>
@@ -5003,13 +4985,13 @@
         <v>777785</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,7 +5047,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5077,13 +5059,13 @@
         <v>172970</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -5092,13 +5074,13 @@
         <v>222493</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -5107,13 +5089,13 @@
         <v>395463</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5110,13 @@
         <v>460935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
@@ -5143,13 +5125,13 @@
         <v>479801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>868</v>
@@ -5158,13 +5140,13 @@
         <v>940736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5214,13 @@
         <v>857768</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>998</v>
@@ -5247,13 +5229,13 @@
         <v>1076613</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>1799</v>
@@ -5262,13 +5244,13 @@
         <v>1934381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,28 +5265,28 @@
         <v>2056890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>1916</v>
       </c>
       <c r="I29" s="7">
-        <v>2068681</v>
+        <v>2068682</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>3851</v>
@@ -5313,13 +5295,13 @@
         <v>4125572</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,7 +5328,7 @@
         <v>2914</v>
       </c>
       <c r="I30" s="7">
-        <v>3145294</v>
+        <v>3145295</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5375,7 +5357,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5399,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6004B37-DDDD-40EF-B14E-6F85ECE7FB4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BA6B54-1212-474B-B86B-47D0F8D6ABDC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5416,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,13 +5505,13 @@
         <v>59517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>77</v>
@@ -5538,13 +5520,13 @@
         <v>77566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>129</v>
@@ -5553,13 +5535,13 @@
         <v>137083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5556,13 @@
         <v>185701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5589,13 +5571,13 @@
         <v>168768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5604,13 +5586,13 @@
         <v>354468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5660,13 @@
         <v>97938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5693,13 +5675,13 @@
         <v>135054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -5708,13 +5690,13 @@
         <v>232992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5711,13 @@
         <v>265227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5744,13 +5726,13 @@
         <v>258273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>495</v>
@@ -5759,13 +5741,13 @@
         <v>523500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,16 +5812,16 @@
         <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>109346</v>
+        <v>109347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -5848,13 +5830,13 @@
         <v>121057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -5863,13 +5845,13 @@
         <v>230403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5866,13 @@
         <v>181160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>186</v>
@@ -5899,13 +5881,13 @@
         <v>186707</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>375</v>
@@ -5914,13 +5896,13 @@
         <v>367867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,7 +5914,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5988,13 +5970,13 @@
         <v>100129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6003,13 +5985,13 @@
         <v>93645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -6018,13 +6000,13 @@
         <v>193774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6021,13 @@
         <v>229918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -6054,13 +6036,13 @@
         <v>255216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -6069,13 +6051,13 @@
         <v>485134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6125,13 @@
         <v>77206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -6158,13 +6140,13 @@
         <v>98855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -6173,13 +6155,13 @@
         <v>176061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6176,13 @@
         <v>42016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -6209,13 +6191,13 @@
         <v>46645</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -6224,13 +6206,13 @@
         <v>88661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6280,13 @@
         <v>91854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -6313,13 +6295,13 @@
         <v>111201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6328,13 +6310,13 @@
         <v>203055</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6331,13 @@
         <v>141761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -6364,13 +6346,13 @@
         <v>135936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>268</v>
@@ -6379,13 +6361,13 @@
         <v>277698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6435,13 @@
         <v>220363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>232</v>
@@ -6468,13 +6450,13 @@
         <v>240720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -6483,13 +6465,13 @@
         <v>461083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6486,13 @@
         <v>221944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -6519,13 +6501,13 @@
         <v>246331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>423</v>
@@ -6534,13 +6516,13 @@
         <v>468275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,7 +6578,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6608,28 +6590,28 @@
         <v>330051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>341</v>
       </c>
       <c r="I25" s="7">
-        <v>365575</v>
+        <v>365574</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>664</v>
@@ -6638,13 +6620,13 @@
         <v>695625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6641,13 @@
         <v>310201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -6674,13 +6656,13 @@
         <v>325767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
@@ -6689,13 +6671,13 @@
         <v>635968</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,7 +6704,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6763,13 +6745,13 @@
         <v>1086404</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>1199</v>
@@ -6778,13 +6760,13 @@
         <v>1243673</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -6793,13 +6775,13 @@
         <v>2330077</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,16 +6793,16 @@
         <v>1497</v>
       </c>
       <c r="D29" s="7">
-        <v>1577930</v>
+        <v>1577929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>1528</v>
@@ -6829,28 +6811,28 @@
         <v>1623642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>3025</v>
       </c>
       <c r="N29" s="7">
-        <v>3201572</v>
+        <v>3201571</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6844,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6892,7 +6874,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6906,7 +6888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6930,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3A01C-307F-4EA8-A145-AB44523B61F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F41FA4-0CDF-4904-82B4-E7C0A59379F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6947,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7054,13 +7036,13 @@
         <v>239726</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>501</v>
@@ -7069,13 +7051,13 @@
         <v>255575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>790</v>
@@ -7084,13 +7066,13 @@
         <v>495302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7087,13 @@
         <v>15544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -7120,13 +7102,13 @@
         <v>13869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
@@ -7135,13 +7117,13 @@
         <v>29413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7191,13 @@
         <v>206074</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
@@ -7224,13 +7206,13 @@
         <v>225917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
@@ -7239,13 +7221,13 @@
         <v>431990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7242,13 @@
         <v>301430</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -7275,13 +7257,13 @@
         <v>314177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
@@ -7290,13 +7272,13 @@
         <v>615608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7346,13 @@
         <v>126459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
@@ -7379,13 +7361,13 @@
         <v>149634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -7394,13 +7376,13 @@
         <v>276093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7397,13 @@
         <v>180874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -7430,13 +7412,13 @@
         <v>208612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>552</v>
@@ -7445,13 +7427,13 @@
         <v>389486</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7501,13 @@
         <v>106494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -7534,13 +7516,13 @@
         <v>144399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -7549,13 +7531,13 @@
         <v>250893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7552,13 @@
         <v>213156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>541</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -7585,13 +7567,13 @@
         <v>281753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>621</v>
@@ -7600,13 +7582,13 @@
         <v>494909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7656,13 @@
         <v>165304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>428</v>
@@ -7689,13 +7671,13 @@
         <v>203502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>655</v>
@@ -7704,13 +7686,13 @@
         <v>368806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7707,13 @@
         <v>19765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -7740,13 +7722,13 @@
         <v>21423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -7755,13 +7737,13 @@
         <v>41188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7811,13 @@
         <v>109971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -7844,13 +7826,13 @@
         <v>136066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>308</v>
@@ -7859,13 +7841,13 @@
         <v>246037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7862,13 @@
         <v>150806</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -7895,13 +7877,13 @@
         <v>128142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -7910,13 +7892,13 @@
         <v>278948</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +7966,13 @@
         <v>360163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>511</v>
@@ -7999,13 +7981,13 @@
         <v>384406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>844</v>
@@ -8014,13 +7996,13 @@
         <v>744569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8017,13 @@
         <v>247840</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>412</v>
@@ -8050,13 +8032,13 @@
         <v>397303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
@@ -8065,13 +8047,13 @@
         <v>645143</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,7 +8109,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8139,13 +8121,13 @@
         <v>537430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>758</v>
@@ -8154,13 +8136,13 @@
         <v>628498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>1246</v>
@@ -8169,13 +8151,13 @@
         <v>1165928</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,13 +8172,13 @@
         <v>296855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
@@ -8205,13 +8187,13 @@
         <v>223571</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -8220,13 +8202,13 @@
         <v>520426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,13 +8276,13 @@
         <v>1851621</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7">
         <v>3035</v>
@@ -8309,13 +8291,13 @@
         <v>2127998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>4857</v>
@@ -8324,13 +8306,13 @@
         <v>3979619</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8345,13 +8327,13 @@
         <v>1426271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>2182</v>
@@ -8360,13 +8342,13 @@
         <v>1588850</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>3614</v>
@@ -8375,13 +8357,13 @@
         <v>3015121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,7 +8419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DECBF9-1B6F-41E9-B863-44A1FDC9225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06F80C4-BC43-49F7-A244-0DEFDAD018A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC45461A-CDF8-4CDE-9D51-47501A24E9D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5EBFF4E4-D8EB-4031-9572-221E210FA4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1378 +77,1402 @@
     <t>27,75%</t>
   </si>
   <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>70,2%</t>
   </si>
   <si>
     <t>69,2%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>45,18%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>33,49%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>39,32%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>45,0%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>42,24%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
   </si>
   <si>
     <t>60,68%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>55,0%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>57,76%</t>
   </si>
   <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>50,58%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>52,88%</t>
   </si>
   <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
   </si>
   <si>
     <t>42,12%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>59,22%</t>
   </si>
   <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>57,88%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
@@ -1739,9 +1763,6 @@
     <t>46,87%</t>
   </si>
   <si>
-    <t>42,94%</t>
-  </si>
-  <si>
     <t>50,82%</t>
   </si>
   <si>
@@ -1769,9 +1790,6 @@
     <t>49,18%</t>
   </si>
   <si>
-    <t>57,06%</t>
-  </si>
-  <si>
     <t>59,24%</t>
   </si>
   <si>
@@ -1844,9 +1862,6 @@
     <t>62,31%</t>
   </si>
   <si>
-    <t>72,49%</t>
-  </si>
-  <si>
     <t>35,58%</t>
   </si>
   <si>
@@ -1866,9 +1881,6 @@
   </si>
   <si>
     <t>30,86%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
   </si>
   <si>
     <t>37,69%</t>
@@ -2337,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D12A924-87CC-40A9-AC8F-9645BEBF7065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CFC2B5-001A-4B23-8782-8F200C1E1178}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3391,13 +3403,13 @@
         <v>102438</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -3406,13 +3418,13 @@
         <v>139727</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>233</v>
@@ -3421,13 +3433,13 @@
         <v>242165</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>361887</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>388</v>
@@ -3457,13 +3469,13 @@
         <v>399641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>745</v>
@@ -3472,13 +3484,13 @@
         <v>761527</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3546,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3546,13 +3558,13 @@
         <v>186005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -3561,13 +3573,13 @@
         <v>198413</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>373</v>
@@ -3576,13 +3588,13 @@
         <v>384418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3609,13 @@
         <v>341050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -3612,13 +3624,13 @@
         <v>393068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -3627,13 +3639,13 @@
         <v>734118</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3713,13 @@
         <v>732331</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>839</v>
@@ -3716,13 +3728,13 @@
         <v>860064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1552</v>
@@ -3731,13 +3743,13 @@
         <v>1592395</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3764,13 @@
         <v>1723915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>1839</v>
@@ -3767,13 +3779,13 @@
         <v>1879942</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>3534</v>
@@ -3782,13 +3794,13 @@
         <v>3603857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3856,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9094DB-1AAB-4F3C-9B65-512E35E81E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5EF604-025B-464C-8E40-427B21FA1BA2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,39 +4002,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,39 +4047,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,39 +4092,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4141,13 @@
         <v>118771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4144,13 +4156,13 @@
         <v>127509</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -4159,13 +4171,13 @@
         <v>246281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4192,13 @@
         <v>287559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>284</v>
@@ -4195,13 +4207,13 @@
         <v>309316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>556</v>
@@ -4210,13 +4222,13 @@
         <v>596874</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4296,13 @@
         <v>98665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -4299,13 +4311,13 @@
         <v>118345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -4314,13 +4326,13 @@
         <v>217010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4347,13 @@
         <v>194999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -4350,13 +4362,13 @@
         <v>209336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -4365,13 +4377,13 @@
         <v>404335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4451,13 @@
         <v>140371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>156</v>
@@ -4454,13 +4466,13 @@
         <v>166796</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
@@ -4469,13 +4481,13 @@
         <v>307167</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4502,13 @@
         <v>423266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>393</v>
@@ -4505,13 +4517,13 @@
         <v>426300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>794</v>
@@ -4520,13 +4532,13 @@
         <v>849566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4606,13 @@
         <v>75562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4609,13 +4621,13 @@
         <v>89858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -4624,13 +4636,13 @@
         <v>165420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4657,13 @@
         <v>116496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4660,13 +4672,13 @@
         <v>104724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>208</v>
@@ -4675,13 +4687,13 @@
         <v>221220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4761,13 @@
         <v>75715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -4764,13 +4776,13 @@
         <v>104032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -4779,13 +4791,13 @@
         <v>179747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4812,13 @@
         <v>174258</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4815,13 +4827,13 @@
         <v>160798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -4830,13 +4842,13 @@
         <v>335056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4916,13 @@
         <v>175713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4919,13 +4931,13 @@
         <v>247580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -4934,13 +4946,13 @@
         <v>423293</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4967,13 @@
         <v>399378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>343</v>
@@ -4970,13 +4982,13 @@
         <v>378407</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>719</v>
@@ -4985,13 +4997,13 @@
         <v>777785</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5059,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5059,13 +5071,13 @@
         <v>172970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -5074,13 +5086,13 @@
         <v>222493</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -5089,13 +5101,13 @@
         <v>395463</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5122,13 @@
         <v>460935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
@@ -5125,13 +5137,13 @@
         <v>479801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>868</v>
@@ -5140,13 +5152,13 @@
         <v>940736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5226,13 @@
         <v>857768</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>998</v>
@@ -5229,13 +5241,13 @@
         <v>1076613</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1799</v>
@@ -5244,13 +5256,13 @@
         <v>1934381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,28 +5277,28 @@
         <v>2056890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>1916</v>
       </c>
       <c r="I29" s="7">
-        <v>2068682</v>
+        <v>2068681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>3851</v>
@@ -5295,13 +5307,13 @@
         <v>4125572</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5340,7 @@
         <v>2914</v>
       </c>
       <c r="I30" s="7">
-        <v>3145295</v>
+        <v>3145294</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5357,7 +5369,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BA6B54-1212-474B-B86B-47D0F8D6ABDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9919BB7F-2DB4-42BA-8D2F-A2A15CAF96CC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5517,13 @@
         <v>59517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>77</v>
@@ -5520,13 +5532,13 @@
         <v>77566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>129</v>
@@ -5535,13 +5547,13 @@
         <v>137083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5568,13 @@
         <v>185701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5571,13 +5583,13 @@
         <v>168768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5586,13 +5598,13 @@
         <v>354468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5672,13 @@
         <v>97938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5675,13 +5687,13 @@
         <v>135054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -5690,13 +5702,13 @@
         <v>232992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5723,13 @@
         <v>265227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5726,13 +5738,13 @@
         <v>258273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>495</v>
@@ -5741,13 +5753,13 @@
         <v>523500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5827,13 @@
         <v>109347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -5830,13 +5842,13 @@
         <v>121057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -5845,13 +5857,13 @@
         <v>230403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5878,13 @@
         <v>181160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>186</v>
@@ -5881,13 +5893,13 @@
         <v>186707</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>375</v>
@@ -5896,13 +5908,13 @@
         <v>367867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5982,13 @@
         <v>100129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5985,13 +5997,13 @@
         <v>93645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -6000,13 +6012,13 @@
         <v>193774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6033,13 @@
         <v>229918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -6036,13 +6048,13 @@
         <v>255216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -6051,13 +6063,13 @@
         <v>485134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6137,13 @@
         <v>77206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -6140,13 +6152,13 @@
         <v>98855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -6155,13 +6167,13 @@
         <v>176061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6188,13 @@
         <v>42016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -6191,13 +6203,13 @@
         <v>46645</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -6206,13 +6218,13 @@
         <v>88661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6292,13 @@
         <v>91854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -6295,13 +6307,13 @@
         <v>111201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6310,13 +6322,13 @@
         <v>203055</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6343,13 @@
         <v>141761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -6346,13 +6358,13 @@
         <v>135936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>268</v>
@@ -6361,13 +6373,13 @@
         <v>277698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6447,13 @@
         <v>220363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>232</v>
@@ -6450,13 +6462,13 @@
         <v>240720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -6465,13 +6477,13 @@
         <v>461083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6498,13 @@
         <v>221944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -6501,13 +6513,13 @@
         <v>246331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>423</v>
@@ -6516,13 +6528,13 @@
         <v>468275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6590,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6590,13 +6602,13 @@
         <v>330051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>341</v>
@@ -6605,13 +6617,13 @@
         <v>365574</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>664</v>
@@ -6620,13 +6632,13 @@
         <v>695625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6653,13 @@
         <v>310201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -6656,13 +6668,13 @@
         <v>325767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
@@ -6671,13 +6683,13 @@
         <v>635968</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6757,13 @@
         <v>1086404</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>1199</v>
@@ -6760,13 +6772,13 @@
         <v>1243673</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -6775,13 +6787,13 @@
         <v>2330077</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,16 +6805,16 @@
         <v>1497</v>
       </c>
       <c r="D29" s="7">
-        <v>1577929</v>
+        <v>1577930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>1528</v>
@@ -6811,13 +6823,13 @@
         <v>1623642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>3025</v>
@@ -6826,13 +6838,13 @@
         <v>3201571</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6856,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6888,7 +6900,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F41FA4-0CDF-4904-82B4-E7C0A59379F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396E48-1B08-433D-BED1-66ED59BE0B32}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7048,13 @@
         <v>239726</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>501</v>
@@ -7051,13 +7063,13 @@
         <v>255575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>790</v>
@@ -7066,13 +7078,13 @@
         <v>495302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7099,13 @@
         <v>15544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -7102,13 +7114,13 @@
         <v>13869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
@@ -7117,13 +7129,13 @@
         <v>29413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7203,13 @@
         <v>206074</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
@@ -7206,13 +7218,13 @@
         <v>225917</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
@@ -7221,13 +7233,13 @@
         <v>431990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7254,13 @@
         <v>301430</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -7257,13 +7269,13 @@
         <v>314177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
@@ -7272,13 +7284,13 @@
         <v>615608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7358,13 @@
         <v>126459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
@@ -7361,13 +7373,13 @@
         <v>149634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -7376,13 +7388,13 @@
         <v>276093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7409,13 @@
         <v>180874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -7412,13 +7424,13 @@
         <v>208612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="M11" s="7">
         <v>552</v>
@@ -7427,13 +7439,13 @@
         <v>389486</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7513,13 @@
         <v>106494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -7516,13 +7528,13 @@
         <v>144399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -7531,13 +7543,13 @@
         <v>250893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7564,13 @@
         <v>213156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -7567,13 +7579,13 @@
         <v>281753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>621</v>
@@ -7582,13 +7594,13 @@
         <v>494909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7668,13 @@
         <v>165304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>428</v>
@@ -7671,13 +7683,13 @@
         <v>203502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M16" s="7">
         <v>655</v>
@@ -7686,13 +7698,13 @@
         <v>368806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7719,13 @@
         <v>19765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -7722,13 +7734,13 @@
         <v>21423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -7737,13 +7749,13 @@
         <v>41188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7823,13 @@
         <v>109971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -7826,13 +7838,13 @@
         <v>136066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="M19" s="7">
         <v>308</v>
@@ -7841,13 +7853,13 @@
         <v>246037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7874,13 @@
         <v>150806</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -7877,13 +7889,13 @@
         <v>128142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -7892,13 +7904,13 @@
         <v>278948</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7978,13 @@
         <v>360163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="H22" s="7">
         <v>511</v>
@@ -7981,13 +7993,13 @@
         <v>384406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M22" s="7">
         <v>844</v>
@@ -7996,13 +8008,13 @@
         <v>744569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8029,13 @@
         <v>247840</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H23" s="7">
         <v>412</v>
@@ -8032,13 +8044,13 @@
         <v>397303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
@@ -8047,13 +8059,13 @@
         <v>645143</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,7 +8121,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8121,13 +8133,13 @@
         <v>537430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>758</v>
@@ -8136,13 +8148,13 @@
         <v>628498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>1246</v>
@@ -8151,13 +8163,13 @@
         <v>1165928</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8184,13 @@
         <v>296855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
@@ -8187,13 +8199,13 @@
         <v>223571</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -8202,13 +8214,13 @@
         <v>520426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8288,13 @@
         <v>1851621</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>3035</v>
@@ -8291,13 +8303,13 @@
         <v>2127998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>4857</v>
@@ -8306,13 +8318,13 @@
         <v>3979619</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,13 +8339,13 @@
         <v>1426271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H29" s="7">
         <v>2182</v>
@@ -8342,13 +8354,13 @@
         <v>1588850</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>3614</v>
@@ -8357,13 +8369,13 @@
         <v>3015121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8419,7 +8431,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B06F80C4-BC43-49F7-A244-0DEFDAD018A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75364A27-8F8E-43C9-9A18-084F1452BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5EBFF4E4-D8EB-4031-9572-221E210FA4D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64677FE1-2546-48A5-901B-652B583CB505}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,22 +71,22 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>29,58%</t>
+    <t>29,56%</t>
   </si>
   <si>
     <t>43,27%</t>
@@ -95,10 +95,10 @@
     <t>32,08%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>72,25%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>63,81%</t>
@@ -119,16 +119,16 @@
     <t>56,73%</t>
   </si>
   <si>
-    <t>70,42%</t>
+    <t>70,44%</t>
   </si>
   <si>
     <t>67,92%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1804 +140,1810 @@
     <t>29,77%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
+    <t>53,13%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>60,69%</t>
   </si>
   <si>
     <t>64,42%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>62,31%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>30,86%</t>
   </si>
   <si>
-    <t>37,69%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CFC2B5-001A-4B23-8782-8F200C1E1178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80036A8-3FDD-4AAD-AE12-06DEEFB17622}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3731,10 +3737,10 @@
         <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1552</v>
@@ -3743,10 +3749,10 @@
         <v>1592395</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>171</v>
@@ -3761,7 +3767,7 @@
         <v>1695</v>
       </c>
       <c r="D29" s="7">
-        <v>1723915</v>
+        <v>1723914</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>172</v>
@@ -3785,7 +3791,7 @@
         <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="M29" s="7">
         <v>3534</v>
@@ -3794,13 +3800,13 @@
         <v>3603857</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3818,7 @@
         <v>2408</v>
       </c>
       <c r="D30" s="7">
-        <v>2456246</v>
+        <v>2456245</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3880,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5EF604-025B-464C-8E40-427B21FA1BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3ECCD5-0FB9-47BA-9D52-26DC66F71726}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4159,10 +4165,10 @@
         <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -4171,13 +4177,13 @@
         <v>246281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4198,13 @@
         <v>287559</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>284</v>
@@ -4207,13 +4213,13 @@
         <v>309316</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>556</v>
@@ -4222,13 +4228,13 @@
         <v>596874</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4302,13 @@
         <v>98665</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -4311,13 +4317,13 @@
         <v>118345</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -4326,13 +4332,13 @@
         <v>217010</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4353,13 @@
         <v>194999</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -4362,13 +4368,13 @@
         <v>209336</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -4377,13 +4383,13 @@
         <v>404335</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4457,13 @@
         <v>140371</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>156</v>
@@ -4466,13 +4472,13 @@
         <v>166796</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
@@ -4481,13 +4487,13 @@
         <v>307167</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4508,13 @@
         <v>423266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>393</v>
@@ -4517,13 +4523,13 @@
         <v>426300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>794</v>
@@ -4532,13 +4538,13 @@
         <v>849566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4612,13 @@
         <v>75562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4621,13 +4627,13 @@
         <v>89858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -4636,13 +4642,13 @@
         <v>165420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4663,13 @@
         <v>116496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4672,13 +4678,13 @@
         <v>104724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>208</v>
@@ -4687,13 +4693,13 @@
         <v>221220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4767,13 @@
         <v>75715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -4776,13 +4782,13 @@
         <v>104032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -4791,13 +4797,13 @@
         <v>179747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4818,13 @@
         <v>174258</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4827,13 +4833,13 @@
         <v>160798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -4842,13 +4848,13 @@
         <v>335056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4922,13 @@
         <v>175713</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4931,13 +4937,13 @@
         <v>247580</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -4946,13 +4952,13 @@
         <v>423293</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4973,13 @@
         <v>399378</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>343</v>
@@ -4982,13 +4988,13 @@
         <v>378407</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>719</v>
@@ -4997,13 +5003,13 @@
         <v>777785</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5077,13 @@
         <v>172970</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -5086,13 +5092,13 @@
         <v>222493</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -5101,13 +5107,13 @@
         <v>395463</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5128,13 @@
         <v>460935</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
@@ -5137,13 +5143,13 @@
         <v>479801</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>868</v>
@@ -5152,7 +5158,7 @@
         <v>940736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>303</v>
@@ -5393,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9919BB7F-2DB4-42BA-8D2F-A2A15CAF96CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65F40D-86AE-48AE-9914-BBB0DD6070E6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5550,10 +5556,10 @@
         <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5574,13 @@
         <v>185701</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5583,13 +5589,13 @@
         <v>168768</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5598,13 +5604,13 @@
         <v>354468</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5678,13 @@
         <v>97938</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5687,13 +5693,13 @@
         <v>135054</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -5702,13 +5708,13 @@
         <v>232992</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5729,13 @@
         <v>265227</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5738,13 +5744,13 @@
         <v>258273</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>495</v>
@@ -5753,10 +5759,10 @@
         <v>523500</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>357</v>
@@ -5824,16 +5830,16 @@
         <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>109347</v>
+        <v>109346</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -5842,10 +5848,10 @@
         <v>121057</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>362</v>
@@ -5884,7 +5890,7 @@
         <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>186</v>
@@ -5893,13 +5899,13 @@
         <v>186707</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>375</v>
@@ -5926,7 +5932,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5985,10 +5991,10 @@
         <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -5997,13 +6003,13 @@
         <v>93645</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -6039,7 +6045,7 @@
         <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -6048,10 +6054,10 @@
         <v>255216</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>386</v>
@@ -6137,7 +6143,7 @@
         <v>77206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>390</v>
@@ -6188,7 +6194,7 @@
         <v>42016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>398</v>
@@ -6614,7 +6620,7 @@
         <v>341</v>
       </c>
       <c r="I25" s="7">
-        <v>365574</v>
+        <v>365575</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>445</v>
@@ -6716,7 +6722,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6790,10 +6796,10 @@
         <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6814,13 @@
         <v>1577930</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>1528</v>
@@ -6823,28 +6829,28 @@
         <v>1623642</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>3025</v>
       </c>
       <c r="N29" s="7">
-        <v>3201571</v>
+        <v>3201572</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6892,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6924,7 +6930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66396E48-1B08-433D-BED1-66ED59BE0B32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2EA94E-0396-4999-8EE4-2FE42F43BBC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6941,7 +6947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7048,13 +7054,13 @@
         <v>239726</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>501</v>
@@ -7063,13 +7069,13 @@
         <v>255575</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>790</v>
@@ -7078,13 +7084,13 @@
         <v>495302</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7105,13 @@
         <v>15544</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -7114,13 +7120,13 @@
         <v>13869</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
@@ -7129,13 +7135,13 @@
         <v>29413</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7209,13 @@
         <v>206074</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
@@ -7218,13 +7224,13 @@
         <v>225917</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
@@ -7233,13 +7239,13 @@
         <v>431990</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7260,13 @@
         <v>301430</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
@@ -7269,13 +7275,13 @@
         <v>314177</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
@@ -7284,13 +7290,13 @@
         <v>615608</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7364,13 @@
         <v>126459</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
@@ -7373,13 +7379,13 @@
         <v>149634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -7388,13 +7394,13 @@
         <v>276093</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7415,13 @@
         <v>180874</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -7424,13 +7430,13 @@
         <v>208612</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M11" s="7">
         <v>552</v>
@@ -7439,13 +7445,13 @@
         <v>389486</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7519,13 @@
         <v>106494</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -7528,13 +7534,13 @@
         <v>144399</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -7543,13 +7549,13 @@
         <v>250893</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7570,13 @@
         <v>213156</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -7579,13 +7585,13 @@
         <v>281753</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>621</v>
@@ -7594,13 +7600,13 @@
         <v>494909</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>547</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7674,13 @@
         <v>165304</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>428</v>
@@ -7683,13 +7689,13 @@
         <v>203502</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M16" s="7">
         <v>655</v>
@@ -7698,13 +7704,13 @@
         <v>368806</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7725,13 @@
         <v>19765</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -7734,13 +7740,13 @@
         <v>21423</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -7749,13 +7755,13 @@
         <v>41188</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7829,13 @@
         <v>109971</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -7838,13 +7844,13 @@
         <v>136066</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M19" s="7">
         <v>308</v>
@@ -7853,13 +7859,13 @@
         <v>246037</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7880,13 @@
         <v>150806</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -7889,13 +7895,13 @@
         <v>128142</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -7904,13 +7910,13 @@
         <v>278948</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7999,13 @@
         <v>384406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>844</v>
@@ -8008,7 +8014,7 @@
         <v>744569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>588</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>589</v>
@@ -8044,13 +8050,13 @@
         <v>397303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
@@ -8059,7 +8065,7 @@
         <v>645143</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>596</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>597</v>
@@ -8169,7 +8175,7 @@
         <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8190,13 @@
         <v>296855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
@@ -8199,13 +8205,13 @@
         <v>223571</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -8214,13 +8220,13 @@
         <v>520426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8294,13 @@
         <v>1851621</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H28" s="7">
         <v>3035</v>
@@ -8303,13 +8309,13 @@
         <v>2127998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M28" s="7">
         <v>4857</v>
@@ -8318,13 +8324,13 @@
         <v>3979619</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8345,13 @@
         <v>1426271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>2182</v>
@@ -8354,13 +8360,13 @@
         <v>1588850</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>3614</v>
@@ -8369,13 +8375,13 @@
         <v>3015121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75364A27-8F8E-43C9-9A18-084F1452BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85DEF8F0-1D52-4C7B-8926-BFF13DC6C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64677FE1-2546-48A5-901B-652B583CB505}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C65048F0-F754-467A-976E-F92ABE8A0436}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="648">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>29,23%</t>
@@ -692,52 +743,58 @@
     <t>69,04%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>39,34%</t>
@@ -1472,478 +1529,460 @@
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>46,61%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>41,37%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80036A8-3FDD-4AAD-AE12-06DEEFB17622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEEE976-B2DB-41F6-B78D-4028BD28A7EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3886,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3ECCD5-0FB9-47BA-9D52-26DC66F71726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12240664-4175-427B-ABD8-624C83D4C7D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4004,43 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="7">
+        <v>46788</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43955</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N4" s="7">
+        <v>90743</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,43 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="D5" s="7">
+        <v>203772</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="I5" s="7">
+        <v>206326</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>377</v>
+      </c>
+      <c r="N5" s="7">
+        <v>410099</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,43 +4145,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="I6" s="7">
+        <v>250281</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>464</v>
+      </c>
+      <c r="N6" s="7">
+        <v>500842</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4204,13 @@
         <v>118771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4162,13 +4219,13 @@
         <v>127509</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -4177,13 +4234,13 @@
         <v>246281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4255,13 @@
         <v>287559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>284</v>
@@ -4213,10 +4270,10 @@
         <v>309316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -4228,13 +4285,13 @@
         <v>596874</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4359,13 @@
         <v>98665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -4317,13 +4374,13 @@
         <v>118345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -4332,13 +4389,13 @@
         <v>217010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4410,13 @@
         <v>194999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -4368,13 +4425,13 @@
         <v>209336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -4383,13 +4440,13 @@
         <v>404335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,49 +4508,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>140371</v>
+        <v>93583</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>166796</v>
+        <v>122841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="N13" s="7">
-        <v>307167</v>
+        <v>216423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,49 +4559,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>423266</v>
+        <v>219494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>426300</v>
+        <v>219974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>794</v>
+        <v>417</v>
       </c>
       <c r="N14" s="7">
-        <v>849566</v>
+        <v>439468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,10 +4610,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4568,10 +4625,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>549</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>593096</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4583,10 +4640,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1079</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1156733</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4612,13 +4669,13 @@
         <v>75562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4627,13 +4684,13 @@
         <v>89858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -4642,13 +4699,13 @@
         <v>165420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4720,13 @@
         <v>116496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4678,13 +4735,13 @@
         <v>104724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>208</v>
@@ -4693,13 +4750,13 @@
         <v>221220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4824,13 @@
         <v>75715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -4782,13 +4839,13 @@
         <v>104032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -4797,13 +4854,13 @@
         <v>179747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4875,13 @@
         <v>174258</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>155</v>
@@ -4833,13 +4890,13 @@
         <v>160798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -4848,13 +4905,13 @@
         <v>335056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4979,13 @@
         <v>175713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4937,13 +4994,13 @@
         <v>247580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -4952,13 +5009,13 @@
         <v>423293</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5030,13 @@
         <v>399378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>343</v>
@@ -4988,13 +5045,13 @@
         <v>378407</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>719</v>
@@ -5003,13 +5060,13 @@
         <v>777785</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5134,13 @@
         <v>172970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -5092,13 +5149,13 @@
         <v>222493</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -5107,13 +5164,13 @@
         <v>395463</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5185,13 @@
         <v>460935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
@@ -5143,13 +5200,13 @@
         <v>479801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>868</v>
@@ -5158,13 +5215,13 @@
         <v>940736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5289,13 @@
         <v>857768</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>998</v>
@@ -5247,13 +5304,13 @@
         <v>1076613</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>1799</v>
@@ -5262,13 +5319,13 @@
         <v>1934381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,31 +5337,31 @@
         <v>1935</v>
       </c>
       <c r="D29" s="7">
-        <v>2056890</v>
+        <v>2056891</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>1916</v>
       </c>
       <c r="I29" s="7">
-        <v>2068681</v>
+        <v>2068682</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>3851</v>
@@ -5313,13 +5370,13 @@
         <v>4125572</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,7 +5388,7 @@
         <v>2736</v>
       </c>
       <c r="D30" s="7">
-        <v>2914658</v>
+        <v>2914659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5346,7 +5403,7 @@
         <v>2914</v>
       </c>
       <c r="I30" s="7">
-        <v>3145294</v>
+        <v>3145295</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5399,7 +5456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD65F40D-86AE-48AE-9914-BBB0DD6070E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4697960A-AD29-406C-B8F6-413BC6DDF185}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5416,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,13 +5580,13 @@
         <v>59517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>77</v>
@@ -5538,13 +5595,13 @@
         <v>77566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>129</v>
@@ -5553,13 +5610,13 @@
         <v>137083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5631,13 @@
         <v>185701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5589,13 +5646,13 @@
         <v>168768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5604,10 +5661,10 @@
         <v>354468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>125</v>
@@ -5678,13 +5735,13 @@
         <v>97938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -5693,13 +5750,13 @@
         <v>135054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -5708,13 +5765,13 @@
         <v>232992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5786,13 @@
         <v>265227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -5744,13 +5801,13 @@
         <v>258273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>495</v>
@@ -5759,13 +5816,13 @@
         <v>523500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,16 +5887,16 @@
         <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>109346</v>
+        <v>109347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -5848,13 +5905,13 @@
         <v>121057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -5863,13 +5920,13 @@
         <v>230403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,10 +5941,10 @@
         <v>181160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>124</v>
@@ -5899,13 +5956,13 @@
         <v>186707</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>375</v>
@@ -5914,13 +5971,13 @@
         <v>367867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,7 +5989,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5988,13 +6045,13 @@
         <v>100129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6003,13 +6060,13 @@
         <v>93645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -6018,13 +6075,13 @@
         <v>193774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,10 +6096,10 @@
         <v>229918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>63</v>
@@ -6054,13 +6111,13 @@
         <v>255216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -6069,13 +6126,13 @@
         <v>485134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6200,13 @@
         <v>77206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -6158,13 +6215,13 @@
         <v>98855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -6173,13 +6230,13 @@
         <v>176061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6251,13 @@
         <v>42016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -6209,13 +6266,13 @@
         <v>46645</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -6224,13 +6281,13 @@
         <v>88661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6355,13 @@
         <v>91854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>111</v>
@@ -6313,13 +6370,13 @@
         <v>111201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6328,13 +6385,13 @@
         <v>203055</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6406,13 @@
         <v>141761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -6364,13 +6421,13 @@
         <v>135936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>268</v>
@@ -6379,13 +6436,13 @@
         <v>277698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6510,13 @@
         <v>220363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>232</v>
@@ -6468,13 +6525,13 @@
         <v>240720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -6483,13 +6540,13 @@
         <v>461083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6561,13 @@
         <v>221944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -6519,13 +6576,13 @@
         <v>246331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>423</v>
@@ -6534,13 +6591,13 @@
         <v>468275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,28 +6665,28 @@
         <v>330051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>341</v>
       </c>
       <c r="I25" s="7">
-        <v>365575</v>
+        <v>365574</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>664</v>
@@ -6638,13 +6695,13 @@
         <v>695625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6716,13 @@
         <v>310201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>294</v>
@@ -6674,13 +6731,13 @@
         <v>325767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
@@ -6689,13 +6746,13 @@
         <v>635968</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,7 +6779,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6763,13 +6820,13 @@
         <v>1086404</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>1199</v>
@@ -6778,13 +6835,13 @@
         <v>1243673</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>2232</v>
@@ -6793,13 +6850,13 @@
         <v>2330077</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,16 +6868,16 @@
         <v>1497</v>
       </c>
       <c r="D29" s="7">
-        <v>1577930</v>
+        <v>1577929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="H29" s="7">
         <v>1528</v>
@@ -6829,28 +6886,28 @@
         <v>1623642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M29" s="7">
         <v>3025</v>
       </c>
       <c r="N29" s="7">
-        <v>3201572</v>
+        <v>3201571</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6919,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6892,7 +6949,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6930,7 +6987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2EA94E-0396-4999-8EE4-2FE42F43BBC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C93150-D78C-4C66-95CC-0D0E2A725B65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6947,7 +7004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7051,46 +7108,46 @@
         <v>289</v>
       </c>
       <c r="D4" s="7">
-        <v>239726</v>
+        <v>288007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="H4" s="7">
         <v>501</v>
       </c>
       <c r="I4" s="7">
-        <v>255575</v>
+        <v>273202</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>790</v>
       </c>
       <c r="N4" s="7">
-        <v>495302</v>
+        <v>561209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,46 +7159,46 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>15544</v>
+        <v>17423</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>13869</v>
+        <v>14405</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>29413</v>
+        <v>31828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,7 +7210,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7168,7 +7225,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7183,7 +7240,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7206,46 +7263,46 @@
         <v>157</v>
       </c>
       <c r="D7" s="7">
-        <v>206074</v>
+        <v>203817</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="H7" s="7">
         <v>286</v>
       </c>
       <c r="I7" s="7">
-        <v>225917</v>
+        <v>209826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="M7" s="7">
         <v>443</v>
       </c>
       <c r="N7" s="7">
-        <v>431990</v>
+        <v>413643</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,46 +7314,46 @@
         <v>214</v>
       </c>
       <c r="D8" s="7">
-        <v>301430</v>
+        <v>303167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>410</v>
       </c>
       <c r="I8" s="7">
-        <v>314177</v>
+        <v>291722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>624</v>
       </c>
       <c r="N8" s="7">
-        <v>615608</v>
+        <v>594889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,7 +7365,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7323,7 +7380,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7338,7 +7395,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7361,46 +7418,46 @@
         <v>121</v>
       </c>
       <c r="D10" s="7">
-        <v>126459</v>
+        <v>126278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
       </c>
       <c r="I10" s="7">
-        <v>149634</v>
+        <v>140676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
       </c>
       <c r="N10" s="7">
-        <v>276093</v>
+        <v>266954</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,46 +7469,46 @@
         <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>180874</v>
+        <v>174914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
       </c>
       <c r="I11" s="7">
-        <v>208612</v>
+        <v>194599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="M11" s="7">
         <v>552</v>
       </c>
       <c r="N11" s="7">
-        <v>389486</v>
+        <v>369513</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,7 +7520,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7478,7 +7535,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7493,7 +7550,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7516,46 +7573,46 @@
         <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>106494</v>
+        <v>101828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
       </c>
       <c r="I13" s="7">
-        <v>144399</v>
+        <v>188711</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
       </c>
       <c r="N13" s="7">
-        <v>250893</v>
+        <v>290539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>555</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,46 +7624,46 @@
         <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>213156</v>
+        <v>208292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
       </c>
       <c r="I14" s="7">
-        <v>281753</v>
+        <v>284754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="M14" s="7">
         <v>621</v>
       </c>
       <c r="N14" s="7">
-        <v>494909</v>
+        <v>493046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,7 +7675,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7633,7 +7690,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7648,7 +7705,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7671,46 +7728,46 @@
         <v>227</v>
       </c>
       <c r="D16" s="7">
-        <v>165304</v>
+        <v>150421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="H16" s="7">
         <v>428</v>
       </c>
       <c r="I16" s="7">
-        <v>203502</v>
+        <v>182811</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="M16" s="7">
         <v>655</v>
       </c>
       <c r="N16" s="7">
-        <v>368806</v>
+        <v>333232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,46 +7779,46 @@
         <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>19765</v>
+        <v>18008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>21423</v>
+        <v>19481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
       </c>
       <c r="N17" s="7">
-        <v>41188</v>
+        <v>37489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,7 +7830,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7788,7 +7845,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7803,7 +7860,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7826,46 +7883,46 @@
         <v>121</v>
       </c>
       <c r="D19" s="7">
-        <v>109971</v>
+        <v>107964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
       </c>
       <c r="I19" s="7">
-        <v>136066</v>
+        <v>126977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>308</v>
       </c>
       <c r="N19" s="7">
-        <v>246037</v>
+        <v>234941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,46 +7934,46 @@
         <v>223</v>
       </c>
       <c r="D20" s="7">
-        <v>150806</v>
+        <v>145768</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
       </c>
       <c r="I20" s="7">
-        <v>128142</v>
+        <v>119373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
       </c>
       <c r="N20" s="7">
-        <v>278948</v>
+        <v>265141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,7 +7985,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7943,7 +8000,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7958,7 +8015,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7981,46 +8038,46 @@
         <v>333</v>
       </c>
       <c r="D22" s="7">
-        <v>360163</v>
+        <v>358151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="H22" s="7">
         <v>511</v>
       </c>
       <c r="I22" s="7">
-        <v>384406</v>
+        <v>356420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="M22" s="7">
         <v>844</v>
       </c>
       <c r="N22" s="7">
-        <v>744569</v>
+        <v>714572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>605</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,46 +8089,46 @@
         <v>249</v>
       </c>
       <c r="D23" s="7">
-        <v>247840</v>
+        <v>242248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>593</v>
+        <v>477</v>
       </c>
       <c r="H23" s="7">
         <v>412</v>
       </c>
       <c r="I23" s="7">
-        <v>397303</v>
+        <v>471945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="M23" s="7">
         <v>661</v>
       </c>
       <c r="N23" s="7">
-        <v>645143</v>
+        <v>714193</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>613</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,7 +8140,7 @@
         <v>582</v>
       </c>
       <c r="D24" s="7">
-        <v>608003</v>
+        <v>600399</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8098,7 +8155,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8113,7 +8170,7 @@
         <v>1505</v>
       </c>
       <c r="N24" s="7">
-        <v>1389712</v>
+        <v>1428765</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8136,46 +8193,46 @@
         <v>488</v>
       </c>
       <c r="D25" s="7">
-        <v>537430</v>
+        <v>454744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>601</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>758</v>
       </c>
       <c r="I25" s="7">
-        <v>628498</v>
+        <v>519216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="M25" s="7">
         <v>1246</v>
       </c>
       <c r="N25" s="7">
-        <v>1165928</v>
+        <v>973959</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,46 +8244,46 @@
         <v>256</v>
       </c>
       <c r="D26" s="7">
-        <v>296855</v>
+        <v>453895</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>609</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
       </c>
       <c r="I26" s="7">
-        <v>223571</v>
+        <v>184708</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
       </c>
       <c r="N26" s="7">
-        <v>520426</v>
+        <v>638604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,7 +8295,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8253,7 +8310,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8268,7 +8325,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8291,46 +8348,46 @@
         <v>1822</v>
       </c>
       <c r="D28" s="7">
-        <v>1851621</v>
+        <v>1791211</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="H28" s="7">
         <v>3035</v>
       </c>
       <c r="I28" s="7">
-        <v>2127998</v>
+        <v>1997841</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="M28" s="7">
         <v>4857</v>
       </c>
       <c r="N28" s="7">
-        <v>3979619</v>
+        <v>3789051</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>624</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8342,46 +8399,46 @@
         <v>1432</v>
       </c>
       <c r="D29" s="7">
-        <v>1426271</v>
+        <v>1563715</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="H29" s="7">
         <v>2182</v>
       </c>
       <c r="I29" s="7">
-        <v>1588850</v>
+        <v>1580986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="M29" s="7">
         <v>3614</v>
       </c>
       <c r="N29" s="7">
-        <v>3015121</v>
+        <v>3144701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>634</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8393,7 +8450,7 @@
         <v>3254</v>
       </c>
       <c r="D30" s="7">
-        <v>3277892</v>
+        <v>3354926</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8408,7 +8465,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8423,7 +8480,7 @@
         <v>8471</v>
       </c>
       <c r="N30" s="7">
-        <v>6994740</v>
+        <v>6933752</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
